--- a/data/trans_camb/POLIPATOLOGIA-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 11,88</t>
+          <t>-9,69; 10,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 19,15</t>
+          <t>-3,01; 18,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,88; 32,73</t>
+          <t>8,21; 32,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 25,59</t>
+          <t>1,44; 27,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 21,86</t>
+          <t>-1,81; 21,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,83; 31,39</t>
+          <t>10,32; 31,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 15,85</t>
+          <t>-1,28; 16,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 17,09</t>
+          <t>0,41; 17,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,44; 30,58</t>
+          <t>13,91; 30,13</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-37,84; 81,83</t>
+          <t>-37,12; 72,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 135,13</t>
+          <t>-12,47; 132,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,61; 228,57</t>
+          <t>31,21; 229,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,3; 97,49</t>
+          <t>3,57; 101,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 85,36</t>
+          <t>-5,33; 85,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,42; 124,03</t>
+          <t>27,56; 127,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 74,11</t>
+          <t>-4,33; 71,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 78,82</t>
+          <t>0,62; 79,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43,84; 145,62</t>
+          <t>45,35; 141,46</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,12; 12,94</t>
+          <t>3,16; 13,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 8,01</t>
+          <t>-1,37; 8,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,99; 23,69</t>
+          <t>13,58; 23,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,83; 18,93</t>
+          <t>7,96; 19,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 13,55</t>
+          <t>1,84; 13,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,55; 21,26</t>
+          <t>8,41; 20,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,01; 14,46</t>
+          <t>7,18; 15,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 9,31</t>
+          <t>1,67; 9,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,01; 20,95</t>
+          <t>12,79; 21,23</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,45; 76,52</t>
+          <t>15,24; 81,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 48,32</t>
+          <t>-6,47; 50,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>62,62; 142,9</t>
+          <t>63,04; 142,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,61; 72,09</t>
+          <t>24,29; 70,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,51; 50,23</t>
+          <t>5,4; 48,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,49; 80,08</t>
+          <t>27,63; 78,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,98; 63,75</t>
+          <t>28,23; 68,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,01; 41,78</t>
+          <t>6,36; 41,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>50,93; 94,67</t>
+          <t>49,4; 94,92</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,01; 7,61</t>
+          <t>0,22; 7,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 6,67</t>
+          <t>-0,52; 6,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,11; 12,44</t>
+          <t>2,49; 12,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 8,29</t>
+          <t>-0,42; 8,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 8,04</t>
+          <t>-1,25; 7,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,6; 14,59</t>
+          <t>6,43; 15,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,14; 7,07</t>
+          <t>1,04; 7,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,53</t>
+          <t>0,64; 6,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,51; 12,4</t>
+          <t>5,59; 12,28</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 41,81</t>
+          <t>1,17; 42,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 37,01</t>
+          <t>-2,54; 36,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,45; 67,52</t>
+          <t>12,16; 65,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 26,12</t>
+          <t>-1,2; 26,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 25,09</t>
+          <t>-3,42; 23,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,95; 46,26</t>
+          <t>17,69; 47,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,09; 27,9</t>
+          <t>3,99; 28,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,01; 25,04</t>
+          <t>2,25; 24,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,64; 49,25</t>
+          <t>19,54; 48,04</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 5,83</t>
+          <t>-2,53; 6,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 6,09</t>
+          <t>-2,63; 6,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,62; 17,75</t>
+          <t>8,69; 18,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 2,08</t>
+          <t>-7,77; 2,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,92; -0,97</t>
+          <t>-11,12; -1,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,83; 33,12</t>
+          <t>6,36; 31,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 2,51</t>
+          <t>-4,03; 2,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 1,64</t>
+          <t>-5,33; 1,4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,53; 27,19</t>
+          <t>9,42; 27,45</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 32,18</t>
+          <t>-11,71; 35,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 33,97</t>
+          <t>-11,61; 37,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>36,67; 99,48</t>
+          <t>38,54; 105,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,89; 6,41</t>
+          <t>-19,42; 7,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,74; -2,49</t>
+          <t>-28,67; -3,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,31; 94,32</t>
+          <t>16,34; 92,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 9,39</t>
+          <t>-13,04; 10,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 6,17</t>
+          <t>-17,63; 5,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>32,11; 99,94</t>
+          <t>31,86; 95,09</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,87; 9,34</t>
+          <t>2,33; 9,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,41; 9,99</t>
+          <t>2,48; 10,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,54; 18,43</t>
+          <t>10,48; 18,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,44; 10,04</t>
+          <t>1,87; 10,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 8,25</t>
+          <t>0,05; 8,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>10,71; 18,88</t>
+          <t>10,92; 18,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,3; 9,04</t>
+          <t>2,93; 8,82</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,35; 7,94</t>
+          <t>2,7; 8,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>12,09; 18,1</t>
+          <t>12,09; 18,18</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>7,91; 50,14</t>
+          <t>10,69; 53,56</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>11,08; 55,01</t>
+          <t>11,31; 56,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>47,96; 99,58</t>
+          <t>48,47; 101,98</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>4,16; 32,84</t>
+          <t>5,28; 34,52</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 26,24</t>
+          <t>0,07; 27,96</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>29,98; 61,0</t>
+          <t>30,83; 61,27</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>11,49; 34,86</t>
+          <t>10,31; 34,85</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>8,01; 31,07</t>
+          <t>9,27; 32,91</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>42,27; 70,69</t>
+          <t>42,21; 71,52</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,59</t>
+          <t>2,6; 6,63</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,04; 6,13</t>
+          <t>2,09; 6,15</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>10,72; 15,43</t>
+          <t>10,57; 15,53</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,85; 7,43</t>
+          <t>3,03; 7,67</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,1; 4,94</t>
+          <t>0,37; 5,06</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>11,57; 19,69</t>
+          <t>11,63; 19,46</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,49</t>
+          <t>3,28; 6,57</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,94</t>
+          <t>1,76; 4,95</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>12,0; 16,81</t>
+          <t>12,11; 17,36</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>10,63; 34,53</t>
+          <t>12,22; 34,83</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>9,23; 32,23</t>
+          <t>10,12; 32,62</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>51,22; 82,18</t>
+          <t>50,25; 81,9</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>8,34; 23,05</t>
+          <t>8,71; 23,53</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,22; 15,09</t>
+          <t>0,97; 15,59</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>33,23; 58,64</t>
+          <t>33,34; 58,53</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>11,78; 24,8</t>
+          <t>11,9; 25,3</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>6,93; 19,13</t>
+          <t>6,23; 18,97</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>43,75; 63,74</t>
+          <t>44,16; 66,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/POLIPATOLOGIA-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 10,94</t>
+          <t>-9,15; 11,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 18,85</t>
+          <t>-3,61; 19,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,21; 32,44</t>
+          <t>8,13; 33,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,44; 27,37</t>
+          <t>0,81; 27,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 21,81</t>
+          <t>-2,88; 22,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,32; 31,94</t>
+          <t>9,71; 31,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 16,05</t>
+          <t>-0,7; 15,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 17,58</t>
+          <t>0,87; 18,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,91; 30,13</t>
+          <t>14,5; 30,54</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-37,12; 72,42</t>
+          <t>-35,8; 80,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 132,45</t>
+          <t>-15,64; 138,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,21; 229,0</t>
+          <t>28,11; 229,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 101,94</t>
+          <t>2,15; 109,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 85,27</t>
+          <t>-7,94; 82,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,56; 127,28</t>
+          <t>24,56; 117,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 71,32</t>
+          <t>-4,19; 70,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 79,82</t>
+          <t>1,11; 83,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>45,35; 141,46</t>
+          <t>46,78; 144,92</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 13,31</t>
+          <t>3,2; 12,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 8,06</t>
+          <t>-1,38; 8,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,58; 23,36</t>
+          <t>12,98; 23,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,96; 19,43</t>
+          <t>7,65; 18,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 13,09</t>
+          <t>2,43; 13,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,41; 20,83</t>
+          <t>8,41; 21,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 15,01</t>
+          <t>7,19; 14,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 9,2</t>
+          <t>1,99; 9,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,79; 21,23</t>
+          <t>12,95; 21,19</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,24; 81,84</t>
+          <t>15,24; 76,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 50,32</t>
+          <t>-6,96; 50,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>63,04; 142,26</t>
+          <t>61,08; 143,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,29; 70,63</t>
+          <t>23,98; 70,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,4; 48,47</t>
+          <t>7,61; 49,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,63; 78,19</t>
+          <t>26,61; 81,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,23; 68,78</t>
+          <t>28,48; 65,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,36; 41,35</t>
+          <t>7,51; 41,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>49,4; 94,92</t>
+          <t>50,63; 95,28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 7,68</t>
+          <t>0,2; 7,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 6,53</t>
+          <t>-0,63; 7,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,49; 12,05</t>
+          <t>1,91; 12,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 8,42</t>
+          <t>0,05; 9,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 7,61</t>
+          <t>-0,96; 7,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,43; 15,1</t>
+          <t>6,26; 14,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 7,07</t>
+          <t>0,8; 6,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 6,2</t>
+          <t>0,35; 6,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,59; 12,28</t>
+          <t>5,24; 12,1</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,17; 42,42</t>
+          <t>0,32; 42,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 36,57</t>
+          <t>-2,79; 39,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,16; 65,24</t>
+          <t>9,77; 67,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 26,19</t>
+          <t>0,15; 29,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 23,67</t>
+          <t>-2,67; 23,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,69; 47,97</t>
+          <t>17,4; 46,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,99; 28,1</t>
+          <t>2,68; 26,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,25; 24,28</t>
+          <t>1,21; 24,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,54; 48,04</t>
+          <t>19,51; 47,62</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 6,24</t>
+          <t>-2,64; 6,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 6,58</t>
+          <t>-2,14; 6,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,69; 18,41</t>
+          <t>8,23; 18,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 2,38</t>
+          <t>-7,36; 2,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,12; -1,01</t>
+          <t>-11,18; -1,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,36; 31,53</t>
+          <t>6,01; 31,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 2,91</t>
+          <t>-3,79; 2,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 1,4</t>
+          <t>-5,2; 1,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,42; 27,45</t>
+          <t>9,72; 27,29</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 35,08</t>
+          <t>-12,18; 33,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 37,24</t>
+          <t>-9,5; 36,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>38,54; 105,01</t>
+          <t>36,42; 101,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 7,13</t>
+          <t>-18,93; 6,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-28,67; -3,03</t>
+          <t>-28,06; -3,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,34; 92,24</t>
+          <t>15,69; 85,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,04; 10,65</t>
+          <t>-12,57; 11,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,63; 5,15</t>
+          <t>-17,17; 6,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>31,86; 95,09</t>
+          <t>32,12; 94,76</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,33; 9,67</t>
+          <t>1,67; 9,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,48; 10,2</t>
+          <t>2,45; 10,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,48; 18,8</t>
+          <t>10,76; 18,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,87; 10,58</t>
+          <t>1,51; 10,26</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,05; 8,56</t>
+          <t>0,21; 8,71</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>10,92; 18,97</t>
+          <t>10,46; 18,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,93; 8,82</t>
+          <t>2,56; 8,85</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,7; 8,34</t>
+          <t>2,01; 8,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>12,09; 18,18</t>
+          <t>12,04; 18,01</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>10,69; 53,56</t>
+          <t>7,41; 52,75</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>11,31; 56,16</t>
+          <t>11,19; 54,75</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>48,47; 101,98</t>
+          <t>48,13; 100,57</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>5,28; 34,52</t>
+          <t>4,23; 33,03</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,07; 27,96</t>
+          <t>0,51; 28,64</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>30,83; 61,27</t>
+          <t>29,91; 60,69</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>10,31; 34,85</t>
+          <t>8,94; 34,41</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>9,27; 32,91</t>
+          <t>6,87; 32,7</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>42,21; 71,52</t>
+          <t>42,42; 71,29</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,6; 6,63</t>
+          <t>2,44; 6,62</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,09; 6,15</t>
+          <t>2,03; 6,09</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>10,57; 15,53</t>
+          <t>10,76; 15,43</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,03; 7,67</t>
+          <t>2,72; 7,61</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,37; 5,06</t>
+          <t>0,15; 4,89</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>11,63; 19,46</t>
+          <t>11,45; 19,1</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,28; 6,57</t>
+          <t>3,33; 6,45</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,95</t>
+          <t>1,83; 4,98</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>12,11; 17,36</t>
+          <t>12,12; 17,73</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>12,22; 34,83</t>
+          <t>11,76; 35,34</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>10,12; 32,62</t>
+          <t>9,84; 32,47</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>50,25; 81,9</t>
+          <t>51,91; 82,16</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>8,71; 23,53</t>
+          <t>7,63; 23,28</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,97; 15,59</t>
+          <t>0,34; 15,19</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>33,34; 58,53</t>
+          <t>33,02; 58,52</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>11,9; 25,3</t>
+          <t>12,23; 25,14</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>6,23; 18,97</t>
+          <t>6,71; 19,34</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>44,16; 66,55</t>
+          <t>44,0; 66,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/POLIPATOLOGIA-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 11,98</t>
+          <t>-9,55; 11,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 19,39</t>
+          <t>-3,13; 19,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,13; 33,04</t>
+          <t>7,88; 32,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 27,85</t>
+          <t>2,08; 25,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 22,11</t>
+          <t>-2,52; 21,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,71; 31,09</t>
+          <t>9,83; 31,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 15,24</t>
+          <t>-1,83; 15,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 18,12</t>
+          <t>-0,51; 17,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,5; 30,54</t>
+          <t>13,44; 30,58</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-35,8; 80,06</t>
+          <t>-37,84; 81,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 138,08</t>
+          <t>-13,18; 135,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,11; 229,12</t>
+          <t>27,61; 228,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 109,18</t>
+          <t>5,3; 97,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 82,19</t>
+          <t>-6,32; 85,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,56; 117,2</t>
+          <t>25,42; 124,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 70,65</t>
+          <t>-5,93; 74,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 83,1</t>
+          <t>-1,47; 78,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>46,78; 144,92</t>
+          <t>43,84; 145,62</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 12,61</t>
+          <t>3,12; 12,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 8,3</t>
+          <t>-1,35; 8,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,98; 23,48</t>
+          <t>12,99; 23,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,65; 18,8</t>
+          <t>7,83; 18,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,43; 13,31</t>
+          <t>2,01; 13,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,41; 21,4</t>
+          <t>8,55; 21,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,19; 14,41</t>
+          <t>7,01; 14,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 9,34</t>
+          <t>2,03; 9,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,95; 21,19</t>
+          <t>13,01; 20,95</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,24; 76,17</t>
+          <t>13,45; 76,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 50,69</t>
+          <t>-6,36; 48,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,08; 143,29</t>
+          <t>62,62; 142,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,98; 70,02</t>
+          <t>24,61; 72,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,61; 49,78</t>
+          <t>6,51; 50,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,61; 81,06</t>
+          <t>28,49; 80,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,48; 65,62</t>
+          <t>26,98; 63,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,51; 41,41</t>
+          <t>8,01; 41,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>50,63; 95,28</t>
+          <t>50,93; 94,67</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 7,65</t>
+          <t>0,01; 7,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 7,02</t>
+          <t>-0,65; 6,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 12,35</t>
+          <t>3,11; 12,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 9,21</t>
+          <t>-0,75; 8,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 7,38</t>
+          <t>-0,81; 8,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,26; 14,55</t>
+          <t>6,6; 14,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 6,92</t>
+          <t>1,14; 7,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 6,34</t>
+          <t>0,62; 6,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,24; 12,1</t>
+          <t>5,51; 12,4</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 42,08</t>
+          <t>-0,36; 41,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 39,16</t>
+          <t>-2,9; 37,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,77; 67,55</t>
+          <t>14,45; 67,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,15; 29,55</t>
+          <t>-1,92; 26,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 23,17</t>
+          <t>-2,29; 25,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,4; 46,22</t>
+          <t>17,95; 46,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,68; 26,91</t>
+          <t>4,09; 27,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,21; 24,99</t>
+          <t>2,01; 25,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,51; 47,62</t>
+          <t>19,64; 49,25</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 6,08</t>
+          <t>-3,2; 5,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 6,44</t>
+          <t>-2,16; 6,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,23; 18,21</t>
+          <t>8,62; 17,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 2,38</t>
+          <t>-8,05; 2,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,18; -1,4</t>
+          <t>-10,92; -0,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,01; 31,16</t>
+          <t>6,83; 33,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 2,99</t>
+          <t>-4,02; 2,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 1,77</t>
+          <t>-5,39; 1,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,72; 27,29</t>
+          <t>9,53; 27,19</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 33,37</t>
+          <t>-14,79; 32,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 36,98</t>
+          <t>-9,63; 33,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>36,42; 101,7</t>
+          <t>36,67; 99,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 6,79</t>
+          <t>-19,89; 6,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-28,06; -3,66</t>
+          <t>-27,74; -2,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>15,69; 85,28</t>
+          <t>17,31; 94,32</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 11,03</t>
+          <t>-13,02; 9,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 6,69</t>
+          <t>-17,36; 6,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>32,12; 94,76</t>
+          <t>32,11; 99,94</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,67; 9,68</t>
+          <t>1,87; 9,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,45; 10,2</t>
+          <t>2,41; 9,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,76; 18,65</t>
+          <t>10,54; 18,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,51; 10,26</t>
+          <t>1,44; 10,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,21; 8,71</t>
+          <t>-0,01; 8,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>10,46; 18,76</t>
+          <t>10,71; 18,88</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,56; 8,85</t>
+          <t>3,3; 9,04</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,01; 8,4</t>
+          <t>2,35; 7,94</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>12,04; 18,01</t>
+          <t>12,09; 18,1</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>7,41; 52,75</t>
+          <t>7,91; 50,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>11,19; 54,75</t>
+          <t>11,08; 55,01</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>48,13; 100,57</t>
+          <t>47,96; 99,58</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>4,23; 33,03</t>
+          <t>4,16; 32,84</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,51; 28,64</t>
+          <t>-0,17; 26,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>29,91; 60,69</t>
+          <t>29,98; 61,0</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>8,94; 34,41</t>
+          <t>11,49; 34,86</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>6,87; 32,7</t>
+          <t>8,01; 31,07</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>42,42; 71,29</t>
+          <t>42,27; 70,69</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,44; 6,62</t>
+          <t>2,24; 6,59</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,09</t>
+          <t>2,04; 6,13</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>10,76; 15,43</t>
+          <t>10,72; 15,43</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,61</t>
+          <t>2,85; 7,43</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,15; 4,89</t>
+          <t>0,1; 4,94</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>11,45; 19,1</t>
+          <t>11,57; 19,69</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,33; 6,45</t>
+          <t>3,24; 6,49</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,98</t>
+          <t>1,91; 4,94</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>12,12; 17,73</t>
+          <t>12,0; 16,81</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>11,76; 35,34</t>
+          <t>10,63; 34,53</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>9,84; 32,47</t>
+          <t>9,23; 32,23</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>51,91; 82,16</t>
+          <t>51,22; 82,18</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>7,63; 23,28</t>
+          <t>8,34; 23,05</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,34; 15,19</t>
+          <t>0,22; 15,09</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>33,02; 58,52</t>
+          <t>33,23; 58,64</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>12,23; 25,14</t>
+          <t>11,78; 24,8</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>6,71; 19,34</t>
+          <t>6,93; 19,13</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>44,0; 66,75</t>
+          <t>43,75; 63,74</t>
         </is>
       </c>
     </row>
